--- a/src/projects/linear_regression.xlsx
+++ b/src/projects/linear_regression.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelodeleon/ucu/2021-2/ML/portafolio-ml/src/projects/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009C8A3-DFC1-434D-A960-8380F1C3EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="102400" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ej1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ej2" sheetId="2" r:id="rId5"/>
+    <sheet name="Regresion Lineal" sheetId="1" r:id="rId1"/>
+    <sheet name="Descenso Gradiente" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -52,25 +72,60 @@
   <si>
     <t>B0</t>
   </si>
+  <si>
+    <t>(p(i) - y(i))^2</t>
+  </si>
+  <si>
+    <t>y(i)</t>
+  </si>
+  <si>
+    <t>p(i)</t>
+  </si>
+  <si>
+    <t>Predicciones con coeficientes finales</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,48 +133,65 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{23A81722-A02E-C949-98D8-BADF9F69E8FB}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -136,7 +208,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -149,6 +221,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -159,7 +232,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ej1'!$C$1</c:f>
+              <c:f>'Regresion Lineal'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -182,7 +261,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050">
                 <a:solidFill>
@@ -196,15 +274,64 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ej1'!$B$2:$B$7</c:f>
+              <c:f>'Regresion Lineal'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ej1'!$C$2:$C$7</c:f>
-              <c:numCache/>
+              <c:f>'Regresion Lineal'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAD9-4047-9E67-C7A45D5BC9AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -259,7 +386,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -291,9 +418,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388954663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1388954663"/>
@@ -337,7 +467,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -369,9 +499,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1733803950"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -389,20 +522,34 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-UY"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -418,18 +565,525 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Ej1'!$C$15:$C$95</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'Regresion Lineal'!$C$15:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.4666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5009523809523808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5352380952380951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5695238095238093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6038095238095238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.638095238095238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6723809523809523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7409523809523808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7752380952380951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8438095238095238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.878095238095238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9123809523809523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0152380952380953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0495238095238095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0838095238095238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.118095238095238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1523809523809523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1866666666666665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2209523809523808</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.255238095238095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2895238095238093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3238095238095235</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3580952380952382</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3923809523809525</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4609523809523806</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4952380952380953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5295238095238095</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5638095238095238</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.598095238095238</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6323809523809523</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7009523809523808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7352380952380955</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7695238095238093</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.803809523809524</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8380952380952378</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8723809523809525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9066666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.940952380952381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9752380952380952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0095238095238095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0438095238095233</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.078095238095238</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1123809523809522</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1809523809523812</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.215238095238095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2495238095238097</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2838095238095235</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3180952380952382</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.352380952380952</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.420952380952381</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.4552380952380952</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4895238095238099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5580952380952375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5923809523809522</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.6266666666666669</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6609523809523807</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6952380952380954</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7295238095238092</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.7638095238095239</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.7980952380952377</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.8323809523809524</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9009523809523809</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9352380952380956</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.9695238095238095</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0038095238095242</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.038095238095238</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0723809523809518</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.1066666666666665</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.1409523809523812</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.175238095238095</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.2095238095238097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ej1'!$B$15:$B$95</c:f>
-              <c:numCache/>
+              <c:f>'Regresion Lineal'!$B$15:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C07-5749-A298-1828267DEE10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="306134720"/>
         <c:axId val="1820892216"/>
       </c:lineChart>
@@ -454,15 +1108,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-UY"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -471,7 +1117,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -484,9 +1130,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1820892216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1820892216"/>
@@ -529,15 +1181,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-UY"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -562,9 +1206,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="306134720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -582,16 +1229,925 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-UY"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Error de predicción vs Iteraciones</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descenso Gradiente'!$E$11:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6827000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.403349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8253971599999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47110721040000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.046895666088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.03309625593208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.35452105608666962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3036953597867162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.19622081958208615</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.5674626316596445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.17672345174867665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19006757281465836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5138393143678073</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.3208695703739428E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3183705340647367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26783078945094552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47287138841609977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1039317000741065</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.13361012275326E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F6-DA43-9B99-511D5288962C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1646867039"/>
+        <c:axId val="1646868687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1646867039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646868687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1646868687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646867039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -600,9 +2156,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -611,7 +2173,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -625,9 +2187,15 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -636,7 +2204,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -646,11 +2214,50 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227854</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>653677</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1026F4-453B-FB4A-9952-89E8E6A94662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -840,20 +2447,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -880,256 +2492,256 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D7" si="1">B2-$B$8</f>
+        <f t="shared" ref="D2:D7" si="0">B2-$B$8</f>
         <v>-2.5</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E7" si="2">C2-$C$8</f>
-        <v>-1.666666667</v>
+        <f t="shared" ref="E2:E7" si="1">C2-$C$8</f>
+        <v>-1.6666666666666665</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F7" si="3">D2*E2</f>
-        <v>4.166666667</v>
+        <f t="shared" ref="F2:F7" si="2">D2*E2</f>
+        <v>4.1666666666666661</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G7" si="4">POWER(D2,2)</f>
+        <f t="shared" ref="G2:G7" si="3">POWER(D2,2)</f>
         <v>6.25</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H7" si="5">$B$12+$B$11*B2</f>
-        <v>1.80952381</v>
+        <f t="shared" ref="H2:H7" si="4">$B$12+$B$11*B2</f>
+        <v>1.8095238095238093</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I7" si="6">POWER(H2-C2,2)</f>
-        <v>0.6553287982</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="I2:I7" si="5">POWER(H2-C2,2)</f>
+        <v>0.6553287981859407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="E3" s="4">
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="F3" s="4">
         <f t="shared" si="2"/>
-        <v>-0.6666666667</v>
-      </c>
-      <c r="F3" s="4">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="G3" s="4">
         <f t="shared" si="3"/>
-        <v>0.3333333333</v>
-      </c>
-      <c r="G3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="H3" s="5">
+        <v>2.4952380952380953</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="5"/>
-        <v>2.495238095</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="6"/>
-        <v>0.245260771</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.24526077097505672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
-      </c>
-      <c r="E4" s="4">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>0.3333333333</v>
-      </c>
-      <c r="F4" s="4">
+        <v>-0.50000000000000022</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G4" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="H4" s="5">
+        <v>2.1523809523809523</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="5"/>
-        <v>2.152380952</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="6"/>
-        <v>0.7184580499</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.71845804988662143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="4">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>0.3333333333</v>
-      </c>
-      <c r="F5" s="4">
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="3"/>
-        <v>0.1666666667</v>
-      </c>
-      <c r="G5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="H5" s="5">
+        <v>2.8380952380952378</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="5"/>
-        <v>2.838095238</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.02621315193</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.6213151927437742E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="4">
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>-0.6666666667</v>
-      </c>
-      <c r="F6" s="4">
+        <v>-1.6666666666666663</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>-1.666666667</v>
-      </c>
-      <c r="G6" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="H6" s="5">
+        <v>3.5238095238095237</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="5"/>
-        <v>3.523809524</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="6"/>
-        <v>2.321995465</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.3219954648526073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="4">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>2.333333333</v>
-      </c>
-      <c r="F7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="G7" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="H7" s="5">
+        <v>3.1809523809523812</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
-        <v>3.180952381</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="6"/>
-        <v>3.30893424</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3.3089342403628108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:C8" si="7">AVERAGE(B2:B7)</f>
+        <f t="shared" ref="B8:C8" si="6">AVERAGE(B2:B7)</f>
         <v>3.5</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="7"/>
-        <v>2.666666667</v>
+        <f t="shared" si="6"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" ref="B9:G9" si="8">SUM(B2:B7)</f>
+        <f t="shared" ref="B9:G9" si="7">SUM(B2:B7)</f>
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
         <f>SUM(I2:I7)</f>
-        <v>7.276190476</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7.2761904761904752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1142,36 +2754,36 @@
       </c>
       <c r="I10" s="5">
         <f>SQRT(I9/COUNT(B2:B7))</f>
-        <v>1.101225868</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1.1012258681571245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f>(F9)/G9</f>
-        <v>0.3428571429</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="C11" s="4">
         <f>PEARSON(C2:C7,B2:B7)*(STDEV(C2:C7)/STDEV(B2:B7))</f>
-        <v>0.3428571429</v>
+        <v>0.34285714285714292</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f>C8-B11*B8</f>
-        <v>1.466666667</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1179,750 +2791,1388 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:C95" si="9">$B$12+$B$11*B15</f>
-        <v>1.466666667</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" ref="C15:C95" si="8">$B$12+$B$11*B15</f>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>0.1</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="9"/>
-        <v>1.500952381</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="8"/>
+        <v>1.5009523809523808</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>0.2</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="9"/>
-        <v>1.535238095</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="8"/>
+        <v>1.5352380952380951</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>0.3</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="9"/>
-        <v>1.56952381</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="8"/>
+        <v>1.5695238095238093</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>0.4</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="9"/>
-        <v>1.603809524</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="8"/>
+        <v>1.6038095238095238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>0.5</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="9"/>
-        <v>1.638095238</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="8"/>
+        <v>1.638095238095238</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>0.6</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="9"/>
-        <v>1.672380952</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="8"/>
+        <v>1.6723809523809523</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>0.7</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="9"/>
-        <v>1.706666667</v>
-      </c>
-    </row>
-    <row r="23">
+        <f t="shared" si="8"/>
+        <v>1.7066666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>0.8</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="9"/>
-        <v>1.740952381</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" si="8"/>
+        <v>1.7409523809523808</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>0.9</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="9"/>
-        <v>1.775238095</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="8"/>
+        <v>1.7752380952380951</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="9"/>
-        <v>1.80952381</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="8"/>
+        <v>1.8095238095238093</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="9"/>
-        <v>1.843809524</v>
-      </c>
-    </row>
-    <row r="27">
+        <f t="shared" si="8"/>
+        <v>1.8438095238095238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="9"/>
-        <v>1.878095238</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" si="8"/>
+        <v>1.878095238095238</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>1.3</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="9"/>
-        <v>1.912380952</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" si="8"/>
+        <v>1.9123809523809523</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>1.4</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="9"/>
-        <v>1.946666667</v>
-      </c>
-    </row>
-    <row r="30">
+        <f t="shared" si="8"/>
+        <v>1.9466666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>1.5</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="9"/>
-        <v>1.980952381</v>
-      </c>
-    </row>
-    <row r="31">
+        <f t="shared" si="8"/>
+        <v>1.9809523809523808</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>1.6</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="9"/>
-        <v>2.015238095</v>
-      </c>
-    </row>
-    <row r="32">
+        <f t="shared" si="8"/>
+        <v>2.0152380952380953</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <v>1.7</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="9"/>
-        <v>2.04952381</v>
-      </c>
-    </row>
-    <row r="33">
+        <f t="shared" si="8"/>
+        <v>2.0495238095238095</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>1.8</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="9"/>
-        <v>2.083809524</v>
-      </c>
-    </row>
-    <row r="34">
+        <f t="shared" si="8"/>
+        <v>2.0838095238095238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>1.9</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="9"/>
-        <v>2.118095238</v>
-      </c>
-    </row>
-    <row r="35">
+        <f t="shared" si="8"/>
+        <v>2.118095238095238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="9"/>
-        <v>2.152380952</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" si="8"/>
+        <v>2.1523809523809523</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>2.1</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="9"/>
-        <v>2.186666667</v>
-      </c>
-    </row>
-    <row r="37">
+        <f t="shared" si="8"/>
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="9"/>
-        <v>2.220952381</v>
-      </c>
-    </row>
-    <row r="38">
+        <f t="shared" si="8"/>
+        <v>2.2209523809523808</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="9"/>
-        <v>2.255238095</v>
-      </c>
-    </row>
-    <row r="39">
+        <f t="shared" si="8"/>
+        <v>2.255238095238095</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>2.4</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="9"/>
-        <v>2.28952381</v>
-      </c>
-    </row>
-    <row r="40">
+        <f t="shared" si="8"/>
+        <v>2.2895238095238093</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>2.5</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="9"/>
-        <v>2.323809524</v>
-      </c>
-    </row>
-    <row r="41">
+        <f t="shared" si="8"/>
+        <v>2.3238095238095235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>2.6</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="9"/>
-        <v>2.358095238</v>
-      </c>
-    </row>
-    <row r="42">
+        <f t="shared" si="8"/>
+        <v>2.3580952380952382</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>2.7</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="9"/>
-        <v>2.392380952</v>
-      </c>
-    </row>
-    <row r="43">
+        <f t="shared" si="8"/>
+        <v>2.3923809523809525</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>2.8</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="9"/>
-        <v>2.426666667</v>
-      </c>
-    </row>
-    <row r="44">
+        <f t="shared" si="8"/>
+        <v>2.4266666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>2.9</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="9"/>
-        <v>2.460952381</v>
-      </c>
-    </row>
-    <row r="45">
+        <f t="shared" si="8"/>
+        <v>2.4609523809523806</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="9"/>
-        <v>2.495238095</v>
-      </c>
-    </row>
-    <row r="46">
+        <f t="shared" si="8"/>
+        <v>2.4952380952380953</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>3.1</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="9"/>
-        <v>2.52952381</v>
-      </c>
-    </row>
-    <row r="47">
+        <f t="shared" si="8"/>
+        <v>2.5295238095238095</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>3.2</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="9"/>
-        <v>2.563809524</v>
-      </c>
-    </row>
-    <row r="48">
+        <f t="shared" si="8"/>
+        <v>2.5638095238095238</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>3.3</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="9"/>
-        <v>2.598095238</v>
-      </c>
-    </row>
-    <row r="49">
+        <f t="shared" si="8"/>
+        <v>2.598095238095238</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>3.4</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="9"/>
-        <v>2.632380952</v>
-      </c>
-    </row>
-    <row r="50">
+        <f t="shared" si="8"/>
+        <v>2.6323809523809523</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>3.5</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="9"/>
-        <v>2.666666667</v>
-      </c>
-    </row>
-    <row r="51">
+        <f t="shared" si="8"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>3.6</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="9"/>
-        <v>2.700952381</v>
-      </c>
-    </row>
-    <row r="52">
+        <f t="shared" si="8"/>
+        <v>2.7009523809523808</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>3.7</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="9"/>
-        <v>2.735238095</v>
-      </c>
-    </row>
-    <row r="53">
+        <f t="shared" si="8"/>
+        <v>2.7352380952380955</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>3.8</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="9"/>
-        <v>2.76952381</v>
-      </c>
-    </row>
-    <row r="54">
+        <f t="shared" si="8"/>
+        <v>2.7695238095238093</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>3.9</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="9"/>
-        <v>2.803809524</v>
-      </c>
-    </row>
-    <row r="55">
+        <f t="shared" si="8"/>
+        <v>2.803809523809524</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="9"/>
-        <v>2.838095238</v>
-      </c>
-    </row>
-    <row r="56">
+        <f t="shared" si="8"/>
+        <v>2.8380952380952378</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="9"/>
-        <v>2.872380952</v>
-      </c>
-    </row>
-    <row r="57">
+        <f t="shared" si="8"/>
+        <v>2.8723809523809525</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>4.2</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="9"/>
-        <v>2.906666667</v>
-      </c>
-    </row>
-    <row r="58">
+        <f t="shared" si="8"/>
+        <v>2.9066666666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>4.3</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="9"/>
-        <v>2.940952381</v>
-      </c>
-    </row>
-    <row r="59">
+        <f t="shared" si="8"/>
+        <v>2.940952380952381</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="9"/>
-        <v>2.975238095</v>
-      </c>
-    </row>
-    <row r="60">
+        <f t="shared" si="8"/>
+        <v>2.9752380952380952</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>4.5</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="9"/>
-        <v>3.00952381</v>
-      </c>
-    </row>
-    <row r="61">
+        <f t="shared" si="8"/>
+        <v>3.0095238095238095</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="9"/>
-        <v>3.043809524</v>
-      </c>
-    </row>
-    <row r="62">
+        <f t="shared" si="8"/>
+        <v>3.0438095238095233</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>4.7</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="9"/>
-        <v>3.078095238</v>
-      </c>
-    </row>
-    <row r="63">
+        <f t="shared" si="8"/>
+        <v>3.078095238095238</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>4.8</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="9"/>
-        <v>3.112380952</v>
-      </c>
-    </row>
-    <row r="64">
+        <f t="shared" si="8"/>
+        <v>3.1123809523809522</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="9"/>
-        <v>3.146666667</v>
-      </c>
-    </row>
-    <row r="65">
+        <f t="shared" si="8"/>
+        <v>3.1466666666666665</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="9"/>
-        <v>3.180952381</v>
-      </c>
-    </row>
-    <row r="66">
+        <f t="shared" si="8"/>
+        <v>3.1809523809523812</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="9"/>
-        <v>3.215238095</v>
-      </c>
-    </row>
-    <row r="67">
+        <f t="shared" si="8"/>
+        <v>3.215238095238095</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>5.2</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="9"/>
-        <v>3.24952381</v>
-      </c>
-    </row>
-    <row r="68">
+        <f t="shared" si="8"/>
+        <v>3.2495238095238097</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <v>5.3</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="9"/>
-        <v>3.283809524</v>
-      </c>
-    </row>
-    <row r="69">
+        <f t="shared" si="8"/>
+        <v>3.2838095238095235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <v>5.4</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="9"/>
-        <v>3.318095238</v>
-      </c>
-    </row>
-    <row r="70">
+        <f t="shared" si="8"/>
+        <v>3.3180952380952382</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <v>5.5</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="9"/>
-        <v>3.352380952</v>
-      </c>
-    </row>
-    <row r="71">
+        <f t="shared" si="8"/>
+        <v>3.352380952380952</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
         <v>5.6</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="9"/>
-        <v>3.386666667</v>
-      </c>
-    </row>
-    <row r="72">
+        <f t="shared" si="8"/>
+        <v>3.3866666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2">
         <v>5.7</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="9"/>
-        <v>3.420952381</v>
-      </c>
-    </row>
-    <row r="73">
+        <f t="shared" si="8"/>
+        <v>3.420952380952381</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2">
         <v>5.8</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="9"/>
-        <v>3.455238095</v>
-      </c>
-    </row>
-    <row r="74">
+        <f t="shared" si="8"/>
+        <v>3.4552380952380952</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
         <v>5.9</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="9"/>
-        <v>3.48952381</v>
-      </c>
-    </row>
-    <row r="75">
+        <f t="shared" si="8"/>
+        <v>3.4895238095238099</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="9"/>
-        <v>3.523809524</v>
-      </c>
-    </row>
-    <row r="76">
+        <f t="shared" si="8"/>
+        <v>3.5238095238095237</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2">
         <v>6.1</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="9"/>
-        <v>3.558095238</v>
-      </c>
-    </row>
-    <row r="77">
+        <f t="shared" si="8"/>
+        <v>3.5580952380952375</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2">
         <v>6.2</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="9"/>
-        <v>3.592380952</v>
-      </c>
-    </row>
-    <row r="78">
+        <f t="shared" si="8"/>
+        <v>3.5923809523809522</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2">
         <v>6.3</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="9"/>
-        <v>3.626666667</v>
-      </c>
-    </row>
-    <row r="79">
+        <f t="shared" si="8"/>
+        <v>3.6266666666666669</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
         <v>6.4</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="9"/>
-        <v>3.660952381</v>
-      </c>
-    </row>
-    <row r="80">
+        <f t="shared" si="8"/>
+        <v>3.6609523809523807</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2">
         <v>6.5</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="9"/>
-        <v>3.695238095</v>
-      </c>
-    </row>
-    <row r="81">
+        <f t="shared" si="8"/>
+        <v>3.6952380952380954</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2">
         <v>6.6</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="9"/>
-        <v>3.72952381</v>
-      </c>
-    </row>
-    <row r="82">
+        <f t="shared" si="8"/>
+        <v>3.7295238095238092</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2">
         <v>6.7</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="9"/>
-        <v>3.763809524</v>
-      </c>
-    </row>
-    <row r="83">
+        <f t="shared" si="8"/>
+        <v>3.7638095238095239</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2">
         <v>6.8</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="9"/>
-        <v>3.798095238</v>
-      </c>
-    </row>
-    <row r="84">
+        <f t="shared" si="8"/>
+        <v>3.7980952380952377</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2">
         <v>6.9</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="9"/>
-        <v>3.832380952</v>
-      </c>
-    </row>
-    <row r="85">
+        <f t="shared" si="8"/>
+        <v>3.8323809523809524</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="9"/>
-        <v>3.866666667</v>
-      </c>
-    </row>
-    <row r="86">
+        <f t="shared" si="8"/>
+        <v>3.8666666666666663</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2">
         <v>7.1</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="9"/>
-        <v>3.900952381</v>
-      </c>
-    </row>
-    <row r="87">
+        <f t="shared" si="8"/>
+        <v>3.9009523809523809</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B87" s="2">
         <v>7.2</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="9"/>
-        <v>3.935238095</v>
-      </c>
-    </row>
-    <row r="88">
+        <f t="shared" si="8"/>
+        <v>3.9352380952380956</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B88" s="2">
         <v>7.3</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="9"/>
-        <v>3.96952381</v>
-      </c>
-    </row>
-    <row r="89">
+        <f t="shared" si="8"/>
+        <v>3.9695238095238095</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B89" s="2">
         <v>7.4</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="9"/>
-        <v>4.003809524</v>
-      </c>
-    </row>
-    <row r="90">
+        <f t="shared" si="8"/>
+        <v>4.0038095238095242</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B90" s="2">
         <v>7.5</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="9"/>
-        <v>4.038095238</v>
-      </c>
-    </row>
-    <row r="91">
+        <f t="shared" si="8"/>
+        <v>4.038095238095238</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B91" s="2">
         <v>7.6</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="9"/>
-        <v>4.072380952</v>
-      </c>
-    </row>
-    <row r="92">
+        <f t="shared" si="8"/>
+        <v>4.0723809523809518</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
         <v>7.7</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="9"/>
-        <v>4.106666667</v>
-      </c>
-    </row>
-    <row r="93">
+        <f t="shared" si="8"/>
+        <v>4.1066666666666665</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
         <v>7.8</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="9"/>
-        <v>4.140952381</v>
-      </c>
-    </row>
-    <row r="94">
+        <f t="shared" si="8"/>
+        <v>4.1409523809523812</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>7.9</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="9"/>
-        <v>4.175238095</v>
-      </c>
-    </row>
-    <row r="95">
+        <f t="shared" si="8"/>
+        <v>4.175238095238095</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="9"/>
-        <v>4.20952381</v>
+        <f t="shared" si="8"/>
+        <v>4.2095238095238097</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09237EB-010E-E545-A815-56483DDF66C0}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <f>A11+B11*B2</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11-D11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <f>A11-$E$2*E11</f>
+        <v>0.01</v>
+      </c>
+      <c r="B12" s="8">
+        <f>B11-$E$2*E11*B2</f>
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="8">
+        <f>A12+B12*B3</f>
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C3</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <f>C12-D12</f>
+        <v>-2.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f>A12-$E$2*E12</f>
+        <v>3.9700000000000006E-2</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B12-$E$2*E12*B3</f>
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="C13" s="8">
+        <f>A13+B13*B4</f>
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <f>C13-D13</f>
+        <v>-2.6827000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f>A13-$E$2*E13</f>
+        <v>6.6527000000000003E-2</v>
+      </c>
+      <c r="B14" s="8">
+        <f>B13-$E$2*E13*B4</f>
+        <v>0.176708</v>
+      </c>
+      <c r="C14" s="8">
+        <f>A14+B14*B5</f>
+        <v>0.59665100000000004</v>
+      </c>
+      <c r="D14" s="8">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14-D14</f>
+        <v>-1.403349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <f>A14-$E$2*E14</f>
+        <v>8.0560489999999998E-2</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B14-$E$2*E14*B5</f>
+        <v>0.21880847</v>
+      </c>
+      <c r="C15" s="8">
+        <f>A15+B15*B6</f>
+        <v>1.1746028400000001</v>
+      </c>
+      <c r="D15" s="8">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15-D15</f>
+        <v>-3.8253971599999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <f>A15-$E$2*E15</f>
+        <v>0.1188144616</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B15-$E$2*E15*B6</f>
+        <v>0.41007832799999999</v>
+      </c>
+      <c r="C16" s="8">
+        <f>A16+B16*B2</f>
+        <v>0.52889278959999997</v>
+      </c>
+      <c r="D16" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <f>C16-D16</f>
+        <v>-0.47110721040000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <f>A16-$E$2*E16</f>
+        <v>0.123525533704</v>
+      </c>
+      <c r="B17" s="8">
+        <f>B16-$E$2*E16*B2</f>
+        <v>0.41478940010400001</v>
+      </c>
+      <c r="C17" s="8">
+        <f>A17+B17*B3</f>
+        <v>0.953104333912</v>
+      </c>
+      <c r="D17" s="8">
+        <f>C3</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <f>C17-D17</f>
+        <v>-2.046895666088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <f>A17-$E$2*E17</f>
+        <v>0.14399449036487999</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B17-$E$2*E17*B3</f>
+        <v>0.45572731342576001</v>
+      </c>
+      <c r="C18" s="8">
+        <f>A18+B18*B4</f>
+        <v>1.96690374406792</v>
+      </c>
+      <c r="D18" s="8">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="8">
+        <f>C18-D18</f>
+        <v>-1.03309625593208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <f>A18-$E$2*E18</f>
+        <v>0.1543254529242008</v>
+      </c>
+      <c r="B19" s="8">
+        <f>B18-$E$2*E18*B4</f>
+        <v>0.49705116366304319</v>
+      </c>
+      <c r="C19" s="8">
+        <f>A19+B19*B5</f>
+        <v>1.6454789439133304</v>
+      </c>
+      <c r="D19" s="8">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <f>C19-D19</f>
+        <v>-0.35452105608666962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <f>A19-$E$2*E19</f>
+        <v>0.15787066348506751</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B19-$E$2*E19*B5</f>
+        <v>0.50768679534564332</v>
+      </c>
+      <c r="C20" s="8">
+        <f>A20+B20*B6</f>
+        <v>2.6963046402132838</v>
+      </c>
+      <c r="D20" s="8">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="8">
+        <f>C20-D20</f>
+        <v>-2.3036953597867162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <f>A20-$E$2*E20</f>
+        <v>0.18090761708293468</v>
+      </c>
+      <c r="B21" s="8">
+        <f>B20-$E$2*E20*B6</f>
+        <v>0.62287156333497917</v>
+      </c>
+      <c r="C21" s="8">
+        <f>A21+B21*B2</f>
+        <v>0.80377918041791385</v>
+      </c>
+      <c r="D21" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <f>C21-D21</f>
+        <v>-0.19622081958208615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <f>A21-$E$2*E21</f>
+        <v>0.18286982527875553</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B21-$E$2*E21*B2</f>
+        <v>0.6248337715308</v>
+      </c>
+      <c r="C22" s="8">
+        <f>A22+B22*B3</f>
+        <v>1.4325373683403555</v>
+      </c>
+      <c r="D22" s="8">
+        <f>C3</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <f>C22-D22</f>
+        <v>-1.5674626316596445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <f>A22-$E$2*E22</f>
+        <v>0.19854445159535197</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B22-$E$2*E22*B3</f>
+        <v>0.65618302416399288</v>
+      </c>
+      <c r="C23" s="8">
+        <f>A23+B23*B4</f>
+        <v>2.8232765482513233</v>
+      </c>
+      <c r="D23" s="8">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <f>C23-D23</f>
+        <v>-0.17672345174867665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <f>A23-$E$2*E23</f>
+        <v>0.20031168611283873</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B23-$E$2*E23*B4</f>
+        <v>0.6632519622339399</v>
+      </c>
+      <c r="C24" s="8">
+        <f>A24+B24*B5</f>
+        <v>2.1900675728146584</v>
+      </c>
+      <c r="D24" s="8">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
+        <f>C24-D24</f>
+        <v>0.19006757281465836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <f>A24-$E$2*E24</f>
+        <v>0.19841101038469214</v>
+      </c>
+      <c r="B25" s="8">
+        <f>B24-$E$2*E24*B5</f>
+        <v>0.6575499350495001</v>
+      </c>
+      <c r="C25" s="8">
+        <f>A25+B25*B6</f>
+        <v>3.4861606856321927</v>
+      </c>
+      <c r="D25" s="8">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="8">
+        <f>C25-D25</f>
+        <v>-1.5138393143678073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <f>A25-$E$2*E25</f>
+        <v>0.21354940352837021</v>
+      </c>
+      <c r="B26" s="8">
+        <f>B25-$E$2*E25*B6</f>
+        <v>0.73324190076789042</v>
+      </c>
+      <c r="C26" s="8">
+        <f>A26+B26*B2</f>
+        <v>0.94679130429626057</v>
+      </c>
+      <c r="D26" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <f>C26-D26</f>
+        <v>-5.3208695703739428E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <f>A26-$E$2*E26</f>
+        <v>0.21408149048540759</v>
+      </c>
+      <c r="B27" s="8">
+        <f>B26-$E$2*E26*B2</f>
+        <v>0.73377398772492786</v>
+      </c>
+      <c r="C27" s="8">
+        <f>A27+B27*B3</f>
+        <v>1.6816294659352633</v>
+      </c>
+      <c r="D27" s="8">
+        <f>C3</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="8">
+        <f>C27-D27</f>
+        <v>-1.3183705340647367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <f>A27-$E$2*E27</f>
+        <v>0.22726519582605495</v>
+      </c>
+      <c r="B28" s="8">
+        <f>B27-$E$2*E27*B3</f>
+        <v>0.76014139840622263</v>
+      </c>
+      <c r="C28" s="8">
+        <f>A28+B28*B4</f>
+        <v>3.2678307894509455</v>
+      </c>
+      <c r="D28" s="8">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <f>C28-D28</f>
+        <v>0.26783078945094552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <f>A28-$E$2*E28</f>
+        <v>0.22458688793154549</v>
+      </c>
+      <c r="B29" s="8">
+        <f>B28-$E$2*E28*B4</f>
+        <v>0.74942816682818481</v>
+      </c>
+      <c r="C29" s="8">
+        <f>A29+B29*B5</f>
+        <v>2.4728713884160998</v>
+      </c>
+      <c r="D29" s="8">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="8">
+        <f>C29-D29</f>
+        <v>0.47287138841609977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <f>A29-$E$2*E29</f>
+        <v>0.2198581740473845</v>
+      </c>
+      <c r="B30" s="8">
+        <f>B29-$E$2*E29*B5</f>
+        <v>0.73524202517570181</v>
+      </c>
+      <c r="C30" s="8">
+        <f>A30+B30*B6</f>
+        <v>3.8960682999258935</v>
+      </c>
+      <c r="D30" s="8">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <f>C30-D30</f>
+        <v>-1.1039317000741065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <f>A30-$E$2*E30</f>
+        <v>0.23089749104812557</v>
+      </c>
+      <c r="B31" s="8">
+        <f>B30-$E$2*E30*B6</f>
+        <v>0.79043861017940709</v>
+      </c>
+      <c r="C31" s="8">
+        <f>A31+B31*B2</f>
+        <v>1.0213361012275326</v>
+      </c>
+      <c r="D31" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <f>C31-D31</f>
+        <v>2.13361012275326E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <f>$A$31+$B$31*B2</f>
+        <v>1.0213361012275326</v>
+      </c>
+      <c r="B36" s="8">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <f>POWER(A36-B36,2)</f>
+        <v>4.5522921559151814E-4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8">
+        <f>SQRT(C41/COUNT(A36:A40))</f>
+        <v>0.7206264014789554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <f>$A$31+$B$31*B3</f>
+        <v>1.8117747114069398</v>
+      </c>
+      <c r="B37" s="8">
+        <f>C3</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <f>POWER(A37-B37,2)</f>
+        <v>1.4118793364520612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <f>$A$31+$B$31*B4</f>
+        <v>3.3926519317657537</v>
+      </c>
+      <c r="B38" s="8">
+        <f>C4</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="8">
+        <f>POWER(A38-B38,2)</f>
+        <v>0.15417553951937812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <f>$A$31+$B$31*B5</f>
+        <v>2.6022133215863468</v>
+      </c>
+      <c r="B39" s="8">
+        <f>C5</f>
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
+        <f>POWER(A39-B39,2)</f>
+        <v>0.36266088469606073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <f>$A$31+$B$31*B6</f>
+        <v>4.1830905419451607</v>
+      </c>
+      <c r="B40" s="8">
+        <f>C6</f>
+        <v>5</v>
+      </c>
+      <c r="C40" s="8">
+        <f>POWER(A40-B40,2)</f>
+        <v>0.66734106265945126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="8">
+        <f>SUM(C36:C40)</f>
+        <v>2.5965120525425429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>